--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_200.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_200.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33268-d78452-Reviews-Days_Inn_Whittier_Los_Angeles-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>501</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Days-Inn-By-Wyndham-Whittier-Los-Angeles.h100283.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_200.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_200.xlsx
@@ -5699,7 +5699,7 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Maria P</t>
+    <t>theresa q</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78452-r138214344-Days_Inn_by_Wyndham_Whittier_Los_Angeles-Whittier_California.html</t>
@@ -6700,7 +6700,7 @@
         <v>22996</v>
       </c>
       <c r="B2" t="n">
-        <v>135782</v>
+        <v>166709</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6765,7 +6765,7 @@
         <v>22996</v>
       </c>
       <c r="B3" t="n">
-        <v>135783</v>
+        <v>166710</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -6840,7 +6840,7 @@
         <v>22996</v>
       </c>
       <c r="B4" t="n">
-        <v>135784</v>
+        <v>166711</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -6905,7 +6905,7 @@
         <v>22996</v>
       </c>
       <c r="B5" t="n">
-        <v>135785</v>
+        <v>166712</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -6970,7 +6970,7 @@
         <v>22996</v>
       </c>
       <c r="B6" t="n">
-        <v>135786</v>
+        <v>166713</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
@@ -7035,7 +7035,7 @@
         <v>22996</v>
       </c>
       <c r="B7" t="n">
-        <v>135787</v>
+        <v>166714</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
@@ -7104,7 +7104,7 @@
         <v>22996</v>
       </c>
       <c r="B8" t="n">
-        <v>135788</v>
+        <v>166715</v>
       </c>
       <c r="C8" t="s">
         <v>104</v>
@@ -7175,7 +7175,7 @@
         <v>22996</v>
       </c>
       <c r="B9" t="n">
-        <v>135789</v>
+        <v>166716</v>
       </c>
       <c r="C9" t="s">
         <v>114</v>
@@ -7250,7 +7250,7 @@
         <v>22996</v>
       </c>
       <c r="B10" t="n">
-        <v>135790</v>
+        <v>166717</v>
       </c>
       <c r="C10" t="s">
         <v>123</v>
@@ -7323,7 +7323,7 @@
         <v>22996</v>
       </c>
       <c r="B11" t="n">
-        <v>135791</v>
+        <v>166718</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
@@ -7388,7 +7388,7 @@
         <v>22996</v>
       </c>
       <c r="B12" t="n">
-        <v>135792</v>
+        <v>166719</v>
       </c>
       <c r="C12" t="s">
         <v>142</v>
@@ -7463,7 +7463,7 @@
         <v>22996</v>
       </c>
       <c r="B13" t="n">
-        <v>135793</v>
+        <v>166720</v>
       </c>
       <c r="C13" t="s">
         <v>150</v>
@@ -7538,7 +7538,7 @@
         <v>22996</v>
       </c>
       <c r="B14" t="n">
-        <v>135794</v>
+        <v>166721</v>
       </c>
       <c r="C14" t="s">
         <v>159</v>
@@ -7607,7 +7607,7 @@
         <v>22996</v>
       </c>
       <c r="B15" t="n">
-        <v>135795</v>
+        <v>166722</v>
       </c>
       <c r="C15" t="s">
         <v>168</v>
@@ -7672,7 +7672,7 @@
         <v>22996</v>
       </c>
       <c r="B16" t="n">
-        <v>135796</v>
+        <v>166723</v>
       </c>
       <c r="C16" t="s">
         <v>177</v>
@@ -7747,7 +7747,7 @@
         <v>22996</v>
       </c>
       <c r="B17" t="n">
-        <v>135797</v>
+        <v>166724</v>
       </c>
       <c r="C17" t="s">
         <v>186</v>
@@ -7822,7 +7822,7 @@
         <v>22996</v>
       </c>
       <c r="B18" t="n">
-        <v>135798</v>
+        <v>166725</v>
       </c>
       <c r="C18" t="s">
         <v>196</v>
@@ -7897,7 +7897,7 @@
         <v>22996</v>
       </c>
       <c r="B19" t="n">
-        <v>135799</v>
+        <v>166726</v>
       </c>
       <c r="C19" t="s">
         <v>205</v>
@@ -7972,7 +7972,7 @@
         <v>22996</v>
       </c>
       <c r="B20" t="n">
-        <v>135800</v>
+        <v>166727</v>
       </c>
       <c r="C20" t="s">
         <v>214</v>
@@ -8047,7 +8047,7 @@
         <v>22996</v>
       </c>
       <c r="B21" t="n">
-        <v>135801</v>
+        <v>135782</v>
       </c>
       <c r="C21" t="s">
         <v>223</v>
@@ -8122,7 +8122,7 @@
         <v>22996</v>
       </c>
       <c r="B22" t="n">
-        <v>135802</v>
+        <v>166728</v>
       </c>
       <c r="C22" t="s">
         <v>230</v>
@@ -8195,7 +8195,7 @@
         <v>22996</v>
       </c>
       <c r="B23" t="n">
-        <v>135803</v>
+        <v>166729</v>
       </c>
       <c r="C23" t="s">
         <v>234</v>
@@ -8260,7 +8260,7 @@
         <v>22996</v>
       </c>
       <c r="B24" t="n">
-        <v>135804</v>
+        <v>166730</v>
       </c>
       <c r="C24" t="s">
         <v>243</v>
@@ -8333,7 +8333,7 @@
         <v>22996</v>
       </c>
       <c r="B25" t="n">
-        <v>135805</v>
+        <v>166731</v>
       </c>
       <c r="C25" t="s">
         <v>247</v>
@@ -8398,7 +8398,7 @@
         <v>22996</v>
       </c>
       <c r="B26" t="n">
-        <v>135806</v>
+        <v>166732</v>
       </c>
       <c r="C26" t="s">
         <v>253</v>
@@ -8473,7 +8473,7 @@
         <v>22996</v>
       </c>
       <c r="B27" t="n">
-        <v>135807</v>
+        <v>166733</v>
       </c>
       <c r="C27" t="s">
         <v>262</v>
@@ -8548,7 +8548,7 @@
         <v>22996</v>
       </c>
       <c r="B28" t="n">
-        <v>135808</v>
+        <v>166734</v>
       </c>
       <c r="C28" t="s">
         <v>272</v>
@@ -8619,7 +8619,7 @@
         <v>22996</v>
       </c>
       <c r="B29" t="n">
-        <v>135809</v>
+        <v>166735</v>
       </c>
       <c r="C29" t="s">
         <v>278</v>
@@ -8694,7 +8694,7 @@
         <v>22996</v>
       </c>
       <c r="B30" t="n">
-        <v>135810</v>
+        <v>166736</v>
       </c>
       <c r="C30" t="s">
         <v>285</v>
@@ -8769,7 +8769,7 @@
         <v>22996</v>
       </c>
       <c r="B31" t="n">
-        <v>135811</v>
+        <v>166737</v>
       </c>
       <c r="C31" t="s">
         <v>294</v>
@@ -8844,7 +8844,7 @@
         <v>22996</v>
       </c>
       <c r="B32" t="n">
-        <v>135812</v>
+        <v>166738</v>
       </c>
       <c r="C32" t="s">
         <v>300</v>
@@ -8994,7 +8994,7 @@
         <v>22996</v>
       </c>
       <c r="B34" t="n">
-        <v>135813</v>
+        <v>166739</v>
       </c>
       <c r="C34" t="s">
         <v>316</v>
@@ -9065,7 +9065,7 @@
         <v>22996</v>
       </c>
       <c r="B35" t="n">
-        <v>135814</v>
+        <v>166740</v>
       </c>
       <c r="C35" t="s">
         <v>323</v>
@@ -9140,7 +9140,7 @@
         <v>22996</v>
       </c>
       <c r="B36" t="n">
-        <v>135815</v>
+        <v>166741</v>
       </c>
       <c r="C36" t="s">
         <v>333</v>
@@ -9215,7 +9215,7 @@
         <v>22996</v>
       </c>
       <c r="B37" t="n">
-        <v>135816</v>
+        <v>166742</v>
       </c>
       <c r="C37" t="s">
         <v>340</v>
@@ -9288,7 +9288,7 @@
         <v>22996</v>
       </c>
       <c r="B38" t="n">
-        <v>135817</v>
+        <v>166743</v>
       </c>
       <c r="C38" t="s">
         <v>343</v>
@@ -9363,7 +9363,7 @@
         <v>22996</v>
       </c>
       <c r="B39" t="n">
-        <v>135800</v>
+        <v>135782</v>
       </c>
       <c r="C39" t="s">
         <v>223</v>
@@ -9438,7 +9438,7 @@
         <v>22996</v>
       </c>
       <c r="B40" t="n">
-        <v>135818</v>
+        <v>166744</v>
       </c>
       <c r="C40" t="s">
         <v>360</v>
@@ -9513,7 +9513,7 @@
         <v>22996</v>
       </c>
       <c r="B41" t="n">
-        <v>135819</v>
+        <v>166745</v>
       </c>
       <c r="C41" t="s">
         <v>367</v>
@@ -9588,7 +9588,7 @@
         <v>22996</v>
       </c>
       <c r="B42" t="n">
-        <v>135820</v>
+        <v>166746</v>
       </c>
       <c r="C42" t="s">
         <v>376</v>
@@ -9661,7 +9661,7 @@
         <v>22996</v>
       </c>
       <c r="B43" t="n">
-        <v>135821</v>
+        <v>166747</v>
       </c>
       <c r="C43" t="s">
         <v>382</v>
@@ -9736,7 +9736,7 @@
         <v>22996</v>
       </c>
       <c r="B44" t="n">
-        <v>135822</v>
+        <v>166748</v>
       </c>
       <c r="C44" t="s">
         <v>390</v>
@@ -9811,7 +9811,7 @@
         <v>22996</v>
       </c>
       <c r="B45" t="n">
-        <v>135823</v>
+        <v>166749</v>
       </c>
       <c r="C45" t="s">
         <v>399</v>
@@ -9886,7 +9886,7 @@
         <v>22996</v>
       </c>
       <c r="B46" t="n">
-        <v>135824</v>
+        <v>166750</v>
       </c>
       <c r="C46" t="s">
         <v>408</v>
@@ -9961,7 +9961,7 @@
         <v>22996</v>
       </c>
       <c r="B47" t="n">
-        <v>135825</v>
+        <v>166751</v>
       </c>
       <c r="C47" t="s">
         <v>415</v>
@@ -10032,7 +10032,7 @@
         <v>22996</v>
       </c>
       <c r="B48" t="n">
-        <v>135826</v>
+        <v>166752</v>
       </c>
       <c r="C48" t="s">
         <v>425</v>
@@ -10107,7 +10107,7 @@
         <v>22996</v>
       </c>
       <c r="B49" t="n">
-        <v>135827</v>
+        <v>166753</v>
       </c>
       <c r="C49" t="s">
         <v>434</v>
@@ -10182,7 +10182,7 @@
         <v>22996</v>
       </c>
       <c r="B50" t="n">
-        <v>135828</v>
+        <v>166754</v>
       </c>
       <c r="C50" t="s">
         <v>441</v>
@@ -10255,7 +10255,7 @@
         <v>22996</v>
       </c>
       <c r="B51" t="n">
-        <v>135829</v>
+        <v>166755</v>
       </c>
       <c r="C51" t="s">
         <v>447</v>
@@ -10328,7 +10328,7 @@
         <v>22996</v>
       </c>
       <c r="B52" t="n">
-        <v>135830</v>
+        <v>166756</v>
       </c>
       <c r="C52" t="s">
         <v>453</v>
@@ -10403,7 +10403,7 @@
         <v>22996</v>
       </c>
       <c r="B53" t="n">
-        <v>135831</v>
+        <v>166757</v>
       </c>
       <c r="C53" t="s">
         <v>461</v>
@@ -10478,7 +10478,7 @@
         <v>22996</v>
       </c>
       <c r="B54" t="n">
-        <v>135832</v>
+        <v>166758</v>
       </c>
       <c r="C54" t="s">
         <v>470</v>
@@ -10551,7 +10551,7 @@
         <v>22996</v>
       </c>
       <c r="B55" t="n">
-        <v>135833</v>
+        <v>166759</v>
       </c>
       <c r="C55" t="s">
         <v>474</v>
@@ -10626,7 +10626,7 @@
         <v>22996</v>
       </c>
       <c r="B56" t="n">
-        <v>135834</v>
+        <v>166760</v>
       </c>
       <c r="C56" t="s">
         <v>482</v>
@@ -10701,7 +10701,7 @@
         <v>22996</v>
       </c>
       <c r="B57" t="n">
-        <v>135835</v>
+        <v>166761</v>
       </c>
       <c r="C57" t="s">
         <v>491</v>
@@ -10774,7 +10774,7 @@
         <v>22996</v>
       </c>
       <c r="B58" t="n">
-        <v>135836</v>
+        <v>166762</v>
       </c>
       <c r="C58" t="s">
         <v>494</v>
@@ -10847,7 +10847,7 @@
         <v>22996</v>
       </c>
       <c r="B59" t="n">
-        <v>135837</v>
+        <v>166763</v>
       </c>
       <c r="C59" t="s">
         <v>498</v>
@@ -10922,7 +10922,7 @@
         <v>22996</v>
       </c>
       <c r="B60" t="n">
-        <v>135838</v>
+        <v>166764</v>
       </c>
       <c r="C60" t="s">
         <v>507</v>
@@ -10997,7 +10997,7 @@
         <v>22996</v>
       </c>
       <c r="B61" t="n">
-        <v>135839</v>
+        <v>166765</v>
       </c>
       <c r="C61" t="s">
         <v>514</v>
@@ -11066,7 +11066,7 @@
         <v>22996</v>
       </c>
       <c r="B62" t="n">
-        <v>135840</v>
+        <v>166766</v>
       </c>
       <c r="C62" t="s">
         <v>523</v>
@@ -11141,7 +11141,7 @@
         <v>22996</v>
       </c>
       <c r="B63" t="n">
-        <v>135841</v>
+        <v>166767</v>
       </c>
       <c r="C63" t="s">
         <v>530</v>
@@ -11216,7 +11216,7 @@
         <v>22996</v>
       </c>
       <c r="B64" t="n">
-        <v>135842</v>
+        <v>166768</v>
       </c>
       <c r="C64" t="s">
         <v>539</v>
@@ -11352,7 +11352,7 @@
         <v>22996</v>
       </c>
       <c r="B66" t="n">
-        <v>135843</v>
+        <v>166769</v>
       </c>
       <c r="C66" t="s">
         <v>552</v>
@@ -11427,7 +11427,7 @@
         <v>22996</v>
       </c>
       <c r="B67" t="n">
-        <v>135844</v>
+        <v>166770</v>
       </c>
       <c r="C67" t="s">
         <v>561</v>
@@ -11502,7 +11502,7 @@
         <v>22996</v>
       </c>
       <c r="B68" t="n">
-        <v>135845</v>
+        <v>166771</v>
       </c>
       <c r="C68" t="s">
         <v>568</v>
@@ -11573,7 +11573,7 @@
         <v>22996</v>
       </c>
       <c r="B69" t="n">
-        <v>135846</v>
+        <v>166772</v>
       </c>
       <c r="C69" t="s">
         <v>576</v>
@@ -11648,7 +11648,7 @@
         <v>22996</v>
       </c>
       <c r="B70" t="n">
-        <v>135847</v>
+        <v>166773</v>
       </c>
       <c r="C70" t="s">
         <v>583</v>
@@ -11794,7 +11794,7 @@
         <v>22996</v>
       </c>
       <c r="B72" t="n">
-        <v>135848</v>
+        <v>166774</v>
       </c>
       <c r="C72" t="s">
         <v>599</v>
@@ -11869,7 +11869,7 @@
         <v>22996</v>
       </c>
       <c r="B73" t="n">
-        <v>135849</v>
+        <v>166775</v>
       </c>
       <c r="C73" t="s">
         <v>609</v>
@@ -12009,7 +12009,7 @@
         <v>22996</v>
       </c>
       <c r="B75" t="n">
-        <v>135850</v>
+        <v>166776</v>
       </c>
       <c r="C75" t="s">
         <v>625</v>
@@ -12070,7 +12070,7 @@
         <v>22996</v>
       </c>
       <c r="B76" t="n">
-        <v>135851</v>
+        <v>166777</v>
       </c>
       <c r="C76" t="s">
         <v>632</v>
@@ -12145,7 +12145,7 @@
         <v>22996</v>
       </c>
       <c r="B77" t="n">
-        <v>135852</v>
+        <v>166778</v>
       </c>
       <c r="C77" t="s">
         <v>641</v>
@@ -12216,7 +12216,7 @@
         <v>22996</v>
       </c>
       <c r="B78" t="n">
-        <v>135853</v>
+        <v>166779</v>
       </c>
       <c r="C78" t="s">
         <v>651</v>
@@ -12289,7 +12289,7 @@
         <v>22996</v>
       </c>
       <c r="B79" t="n">
-        <v>135854</v>
+        <v>166780</v>
       </c>
       <c r="C79" t="s">
         <v>657</v>
@@ -12364,7 +12364,7 @@
         <v>22996</v>
       </c>
       <c r="B80" t="n">
-        <v>135855</v>
+        <v>166781</v>
       </c>
       <c r="C80" t="s">
         <v>664</v>
@@ -12439,7 +12439,7 @@
         <v>22996</v>
       </c>
       <c r="B81" t="n">
-        <v>135856</v>
+        <v>166782</v>
       </c>
       <c r="C81" t="s">
         <v>673</v>
@@ -12504,7 +12504,7 @@
         <v>22996</v>
       </c>
       <c r="B82" t="n">
-        <v>135857</v>
+        <v>166783</v>
       </c>
       <c r="C82" t="s">
         <v>682</v>
@@ -12575,7 +12575,7 @@
         <v>22996</v>
       </c>
       <c r="B83" t="n">
-        <v>135858</v>
+        <v>166784</v>
       </c>
       <c r="C83" t="s">
         <v>691</v>
@@ -12650,7 +12650,7 @@
         <v>22996</v>
       </c>
       <c r="B84" t="n">
-        <v>135859</v>
+        <v>166785</v>
       </c>
       <c r="C84" t="s">
         <v>701</v>
@@ -12725,7 +12725,7 @@
         <v>22996</v>
       </c>
       <c r="B85" t="n">
-        <v>135860</v>
+        <v>166786</v>
       </c>
       <c r="C85" t="s">
         <v>707</v>
@@ -12798,7 +12798,7 @@
         <v>22996</v>
       </c>
       <c r="B86" t="n">
-        <v>135861</v>
+        <v>166787</v>
       </c>
       <c r="C86" t="s">
         <v>711</v>
@@ -12873,7 +12873,7 @@
         <v>22996</v>
       </c>
       <c r="B87" t="n">
-        <v>135862</v>
+        <v>166788</v>
       </c>
       <c r="C87" t="s">
         <v>719</v>
@@ -12944,7 +12944,7 @@
         <v>22996</v>
       </c>
       <c r="B88" t="n">
-        <v>135863</v>
+        <v>166789</v>
       </c>
       <c r="C88" t="s">
         <v>726</v>
@@ -13019,7 +13019,7 @@
         <v>22996</v>
       </c>
       <c r="B89" t="n">
-        <v>135864</v>
+        <v>166790</v>
       </c>
       <c r="C89" t="s">
         <v>735</v>
@@ -13092,7 +13092,7 @@
         <v>22996</v>
       </c>
       <c r="B90" t="n">
-        <v>135865</v>
+        <v>166791</v>
       </c>
       <c r="C90" t="s">
         <v>741</v>
@@ -13167,7 +13167,7 @@
         <v>22996</v>
       </c>
       <c r="B91" t="n">
-        <v>135866</v>
+        <v>166792</v>
       </c>
       <c r="C91" t="s">
         <v>750</v>
@@ -13240,7 +13240,7 @@
         <v>22996</v>
       </c>
       <c r="B92" t="n">
-        <v>135867</v>
+        <v>166793</v>
       </c>
       <c r="C92" t="s">
         <v>756</v>
@@ -13380,7 +13380,7 @@
         <v>22996</v>
       </c>
       <c r="B94" t="n">
-        <v>135868</v>
+        <v>166794</v>
       </c>
       <c r="C94" t="s">
         <v>774</v>
@@ -13455,7 +13455,7 @@
         <v>22996</v>
       </c>
       <c r="B95" t="n">
-        <v>135869</v>
+        <v>166795</v>
       </c>
       <c r="C95" t="s">
         <v>781</v>
@@ -13530,7 +13530,7 @@
         <v>22996</v>
       </c>
       <c r="B96" t="n">
-        <v>135870</v>
+        <v>166796</v>
       </c>
       <c r="C96" t="s">
         <v>788</v>
@@ -13676,7 +13676,7 @@
         <v>22996</v>
       </c>
       <c r="B98" t="n">
-        <v>135871</v>
+        <v>166797</v>
       </c>
       <c r="C98" t="s">
         <v>807</v>
@@ -13741,7 +13741,7 @@
         <v>22996</v>
       </c>
       <c r="B99" t="n">
-        <v>135872</v>
+        <v>166798</v>
       </c>
       <c r="C99" t="s">
         <v>816</v>
@@ -13816,7 +13816,7 @@
         <v>22996</v>
       </c>
       <c r="B100" t="n">
-        <v>135873</v>
+        <v>166799</v>
       </c>
       <c r="C100" t="s">
         <v>824</v>
@@ -13891,7 +13891,7 @@
         <v>22996</v>
       </c>
       <c r="B101" t="n">
-        <v>135874</v>
+        <v>166800</v>
       </c>
       <c r="C101" t="s">
         <v>834</v>
@@ -13962,7 +13962,7 @@
         <v>22996</v>
       </c>
       <c r="B102" t="n">
-        <v>135875</v>
+        <v>166801</v>
       </c>
       <c r="C102" t="s">
         <v>843</v>
@@ -14027,7 +14027,7 @@
         <v>22996</v>
       </c>
       <c r="B103" t="n">
-        <v>135876</v>
+        <v>166802</v>
       </c>
       <c r="C103" t="s">
         <v>850</v>
@@ -14098,7 +14098,7 @@
         <v>22996</v>
       </c>
       <c r="B104" t="n">
-        <v>135877</v>
+        <v>166803</v>
       </c>
       <c r="C104" t="s">
         <v>859</v>
@@ -14169,7 +14169,7 @@
         <v>22996</v>
       </c>
       <c r="B105" t="n">
-        <v>135878</v>
+        <v>166804</v>
       </c>
       <c r="C105" t="s">
         <v>868</v>
@@ -14238,7 +14238,7 @@
         <v>22996</v>
       </c>
       <c r="B106" t="n">
-        <v>135879</v>
+        <v>166805</v>
       </c>
       <c r="C106" t="s">
         <v>877</v>
@@ -14299,7 +14299,7 @@
         <v>22996</v>
       </c>
       <c r="B107" t="n">
-        <v>135880</v>
+        <v>166806</v>
       </c>
       <c r="C107" t="s">
         <v>886</v>
@@ -14372,7 +14372,7 @@
         <v>22996</v>
       </c>
       <c r="B108" t="n">
-        <v>135881</v>
+        <v>166807</v>
       </c>
       <c r="C108" t="s">
         <v>892</v>
@@ -14445,7 +14445,7 @@
         <v>22996</v>
       </c>
       <c r="B109" t="n">
-        <v>135882</v>
+        <v>166808</v>
       </c>
       <c r="C109" t="s">
         <v>899</v>
@@ -14520,7 +14520,7 @@
         <v>22996</v>
       </c>
       <c r="B110" t="n">
-        <v>135883</v>
+        <v>166809</v>
       </c>
       <c r="C110" t="s">
         <v>906</v>
@@ -14591,7 +14591,7 @@
         <v>22996</v>
       </c>
       <c r="B111" t="n">
-        <v>135884</v>
+        <v>166810</v>
       </c>
       <c r="C111" t="s">
         <v>916</v>
@@ -14666,7 +14666,7 @@
         <v>22996</v>
       </c>
       <c r="B112" t="n">
-        <v>135885</v>
+        <v>166811</v>
       </c>
       <c r="C112" t="s">
         <v>925</v>
@@ -14739,7 +14739,7 @@
         <v>22996</v>
       </c>
       <c r="B113" t="n">
-        <v>135886</v>
+        <v>166812</v>
       </c>
       <c r="C113" t="s">
         <v>929</v>
@@ -14814,7 +14814,7 @@
         <v>22996</v>
       </c>
       <c r="B114" t="n">
-        <v>135887</v>
+        <v>166813</v>
       </c>
       <c r="C114" t="s">
         <v>939</v>
@@ -14887,7 +14887,7 @@
         <v>22996</v>
       </c>
       <c r="B115" t="n">
-        <v>135888</v>
+        <v>166814</v>
       </c>
       <c r="C115" t="s">
         <v>948</v>
@@ -14960,7 +14960,7 @@
         <v>22996</v>
       </c>
       <c r="B116" t="n">
-        <v>135889</v>
+        <v>166815</v>
       </c>
       <c r="C116" t="s">
         <v>955</v>
@@ -15035,7 +15035,7 @@
         <v>22996</v>
       </c>
       <c r="B117" t="n">
-        <v>135890</v>
+        <v>166816</v>
       </c>
       <c r="C117" t="s">
         <v>963</v>
@@ -15110,7 +15110,7 @@
         <v>22996</v>
       </c>
       <c r="B118" t="n">
-        <v>135891</v>
+        <v>166817</v>
       </c>
       <c r="C118" t="s">
         <v>973</v>
@@ -15185,7 +15185,7 @@
         <v>22996</v>
       </c>
       <c r="B119" t="n">
-        <v>135892</v>
+        <v>166818</v>
       </c>
       <c r="C119" t="s">
         <v>980</v>
@@ -15250,7 +15250,7 @@
         <v>22996</v>
       </c>
       <c r="B120" t="n">
-        <v>135893</v>
+        <v>166819</v>
       </c>
       <c r="C120" t="s">
         <v>989</v>
@@ -15325,7 +15325,7 @@
         <v>22996</v>
       </c>
       <c r="B121" t="n">
-        <v>135894</v>
+        <v>166820</v>
       </c>
       <c r="C121" t="s">
         <v>998</v>
@@ -15607,7 +15607,7 @@
         <v>22996</v>
       </c>
       <c r="B125" t="n">
-        <v>135895</v>
+        <v>166821</v>
       </c>
       <c r="C125" t="s">
         <v>1031</v>
@@ -15672,7 +15672,7 @@
         <v>22996</v>
       </c>
       <c r="B126" t="n">
-        <v>135896</v>
+        <v>166822</v>
       </c>
       <c r="C126" t="s">
         <v>1041</v>
@@ -15747,7 +15747,7 @@
         <v>22996</v>
       </c>
       <c r="B127" t="n">
-        <v>135897</v>
+        <v>166823</v>
       </c>
       <c r="C127" t="s">
         <v>1049</v>
@@ -15883,7 +15883,7 @@
         <v>22996</v>
       </c>
       <c r="B129" t="n">
-        <v>135898</v>
+        <v>166824</v>
       </c>
       <c r="C129" t="s">
         <v>1063</v>
@@ -16108,7 +16108,7 @@
         <v>22996</v>
       </c>
       <c r="B132" t="n">
-        <v>135899</v>
+        <v>166825</v>
       </c>
       <c r="C132" t="s">
         <v>1088</v>
@@ -16258,7 +16258,7 @@
         <v>22996</v>
       </c>
       <c r="B134" t="n">
-        <v>135900</v>
+        <v>166826</v>
       </c>
       <c r="C134" t="s">
         <v>1105</v>
@@ -16333,7 +16333,7 @@
         <v>22996</v>
       </c>
       <c r="B135" t="n">
-        <v>135901</v>
+        <v>166827</v>
       </c>
       <c r="C135" t="s">
         <v>1115</v>
@@ -16408,7 +16408,7 @@
         <v>22996</v>
       </c>
       <c r="B136" t="n">
-        <v>135902</v>
+        <v>166828</v>
       </c>
       <c r="C136" t="s">
         <v>1124</v>
@@ -16470,7 +16470,7 @@
         <v>22996</v>
       </c>
       <c r="B137" t="n">
-        <v>135903</v>
+        <v>166829</v>
       </c>
       <c r="C137" t="s">
         <v>1129</v>
@@ -16535,7 +16535,7 @@
         <v>22996</v>
       </c>
       <c r="B138" t="n">
-        <v>135904</v>
+        <v>166830</v>
       </c>
       <c r="C138" t="s">
         <v>1138</v>
@@ -16600,7 +16600,7 @@
         <v>22996</v>
       </c>
       <c r="B139" t="n">
-        <v>135905</v>
+        <v>166831</v>
       </c>
       <c r="C139" t="s">
         <v>1146</v>
@@ -16667,7 +16667,7 @@
         <v>22996</v>
       </c>
       <c r="B140" t="n">
-        <v>135906</v>
+        <v>166832</v>
       </c>
       <c r="C140" t="s">
         <v>1153</v>
@@ -16732,7 +16732,7 @@
         <v>22996</v>
       </c>
       <c r="B141" t="n">
-        <v>135907</v>
+        <v>166833</v>
       </c>
       <c r="C141" t="s">
         <v>1159</v>
@@ -16801,7 +16801,7 @@
         <v>22996</v>
       </c>
       <c r="B142" t="n">
-        <v>135908</v>
+        <v>166834</v>
       </c>
       <c r="C142" t="s">
         <v>1168</v>
@@ -16937,7 +16937,7 @@
         <v>22996</v>
       </c>
       <c r="B144" t="n">
-        <v>135909</v>
+        <v>166835</v>
       </c>
       <c r="C144" t="s">
         <v>1182</v>
@@ -17075,7 +17075,7 @@
         <v>22996</v>
       </c>
       <c r="B146" t="n">
-        <v>135910</v>
+        <v>166836</v>
       </c>
       <c r="C146" t="s">
         <v>1195</v>
@@ -17146,7 +17146,7 @@
         <v>22996</v>
       </c>
       <c r="B147" t="n">
-        <v>135911</v>
+        <v>166837</v>
       </c>
       <c r="C147" t="s">
         <v>1201</v>
@@ -17275,7 +17275,7 @@
         <v>22996</v>
       </c>
       <c r="B149" t="n">
-        <v>135912</v>
+        <v>166838</v>
       </c>
       <c r="C149" t="s">
         <v>1210</v>
@@ -17346,7 +17346,7 @@
         <v>22996</v>
       </c>
       <c r="B150" t="n">
-        <v>135913</v>
+        <v>166839</v>
       </c>
       <c r="C150" t="s">
         <v>1216</v>
@@ -17417,7 +17417,7 @@
         <v>22996</v>
       </c>
       <c r="B151" t="n">
-        <v>135914</v>
+        <v>166840</v>
       </c>
       <c r="C151" t="s">
         <v>1222</v>
@@ -17484,7 +17484,7 @@
         <v>22996</v>
       </c>
       <c r="B152" t="n">
-        <v>135915</v>
+        <v>166841</v>
       </c>
       <c r="C152" t="s">
         <v>1227</v>
@@ -17555,7 +17555,7 @@
         <v>22996</v>
       </c>
       <c r="B153" t="n">
-        <v>135916</v>
+        <v>166842</v>
       </c>
       <c r="C153" t="s">
         <v>1234</v>
@@ -17616,7 +17616,7 @@
         <v>22996</v>
       </c>
       <c r="B154" t="n">
-        <v>135917</v>
+        <v>166843</v>
       </c>
       <c r="C154" t="s">
         <v>1241</v>
@@ -17687,7 +17687,7 @@
         <v>22996</v>
       </c>
       <c r="B155" t="n">
-        <v>135918</v>
+        <v>166844</v>
       </c>
       <c r="C155" t="s">
         <v>1247</v>
@@ -17758,7 +17758,7 @@
         <v>22996</v>
       </c>
       <c r="B156" t="n">
-        <v>135919</v>
+        <v>166845</v>
       </c>
       <c r="C156" t="s">
         <v>1255</v>
@@ -17829,7 +17829,7 @@
         <v>22996</v>
       </c>
       <c r="B157" t="n">
-        <v>135920</v>
+        <v>166846</v>
       </c>
       <c r="C157" t="s">
         <v>1261</v>
@@ -17896,7 +17896,7 @@
         <v>22996</v>
       </c>
       <c r="B158" t="n">
-        <v>135921</v>
+        <v>166847</v>
       </c>
       <c r="C158" t="s">
         <v>1267</v>
@@ -17961,7 +17961,7 @@
         <v>22996</v>
       </c>
       <c r="B159" t="n">
-        <v>135922</v>
+        <v>166848</v>
       </c>
       <c r="C159" t="s">
         <v>1273</v>
@@ -18032,7 +18032,7 @@
         <v>22996</v>
       </c>
       <c r="B160" t="n">
-        <v>135923</v>
+        <v>166849</v>
       </c>
       <c r="C160" t="s">
         <v>1280</v>
@@ -18103,7 +18103,7 @@
         <v>22996</v>
       </c>
       <c r="B161" t="n">
-        <v>135924</v>
+        <v>166850</v>
       </c>
       <c r="C161" t="s">
         <v>1285</v>
@@ -18164,7 +18164,7 @@
         <v>22996</v>
       </c>
       <c r="B162" t="n">
-        <v>135925</v>
+        <v>166851</v>
       </c>
       <c r="C162" t="s">
         <v>1291</v>
@@ -18235,7 +18235,7 @@
         <v>22996</v>
       </c>
       <c r="B163" t="n">
-        <v>135926</v>
+        <v>166852</v>
       </c>
       <c r="C163" t="s">
         <v>1297</v>
@@ -18377,7 +18377,7 @@
         <v>22996</v>
       </c>
       <c r="B165" t="n">
-        <v>135927</v>
+        <v>166853</v>
       </c>
       <c r="C165" t="s">
         <v>1310</v>
@@ -18448,7 +18448,7 @@
         <v>22996</v>
       </c>
       <c r="B166" t="n">
-        <v>135928</v>
+        <v>166854</v>
       </c>
       <c r="C166" t="s">
         <v>1316</v>
@@ -18515,7 +18515,7 @@
         <v>22996</v>
       </c>
       <c r="B167" t="n">
-        <v>135929</v>
+        <v>166855</v>
       </c>
       <c r="C167" t="s">
         <v>1322</v>
@@ -18580,7 +18580,7 @@
         <v>22996</v>
       </c>
       <c r="B168" t="n">
-        <v>135930</v>
+        <v>166856</v>
       </c>
       <c r="C168" t="s">
         <v>1328</v>
@@ -18722,7 +18722,7 @@
         <v>22996</v>
       </c>
       <c r="B170" t="n">
-        <v>135931</v>
+        <v>166857</v>
       </c>
       <c r="C170" t="s">
         <v>1341</v>
@@ -18935,7 +18935,7 @@
         <v>22996</v>
       </c>
       <c r="B173" t="n">
-        <v>135932</v>
+        <v>166858</v>
       </c>
       <c r="C173" t="s">
         <v>1360</v>
@@ -18996,7 +18996,7 @@
         <v>22996</v>
       </c>
       <c r="B174" t="n">
-        <v>135933</v>
+        <v>166859</v>
       </c>
       <c r="C174" t="s">
         <v>1366</v>
@@ -19057,7 +19057,7 @@
         <v>22996</v>
       </c>
       <c r="B175" t="n">
-        <v>135934</v>
+        <v>166860</v>
       </c>
       <c r="C175" t="s">
         <v>1372</v>
@@ -19260,7 +19260,7 @@
         <v>22996</v>
       </c>
       <c r="B178" t="n">
-        <v>135935</v>
+        <v>166861</v>
       </c>
       <c r="C178" t="s">
         <v>1391</v>
@@ -19398,7 +19398,7 @@
         <v>22996</v>
       </c>
       <c r="B180" t="n">
-        <v>135936</v>
+        <v>166862</v>
       </c>
       <c r="C180" t="s">
         <v>1405</v>
@@ -19469,7 +19469,7 @@
         <v>22996</v>
       </c>
       <c r="B181" t="n">
-        <v>135937</v>
+        <v>166863</v>
       </c>
       <c r="C181" t="s">
         <v>1410</v>
@@ -19540,7 +19540,7 @@
         <v>22996</v>
       </c>
       <c r="B182" t="n">
-        <v>135938</v>
+        <v>166864</v>
       </c>
       <c r="C182" t="s">
         <v>1416</v>
@@ -19673,7 +19673,7 @@
         <v>22996</v>
       </c>
       <c r="B184" t="n">
-        <v>135939</v>
+        <v>166865</v>
       </c>
       <c r="C184" t="s">
         <v>1427</v>
@@ -19953,7 +19953,7 @@
         <v>22996</v>
       </c>
       <c r="B188" t="n">
-        <v>135940</v>
+        <v>166866</v>
       </c>
       <c r="C188" t="s">
         <v>1452</v>
@@ -20018,7 +20018,7 @@
         <v>22996</v>
       </c>
       <c r="B189" t="n">
-        <v>135941</v>
+        <v>166867</v>
       </c>
       <c r="C189" t="s">
         <v>1459</v>
@@ -20085,7 +20085,7 @@
         <v>22996</v>
       </c>
       <c r="B190" t="n">
-        <v>135942</v>
+        <v>166868</v>
       </c>
       <c r="C190" t="s">
         <v>1464</v>
@@ -20227,7 +20227,7 @@
         <v>22996</v>
       </c>
       <c r="B192" t="n">
-        <v>135943</v>
+        <v>166869</v>
       </c>
       <c r="C192" t="s">
         <v>1478</v>
@@ -20298,7 +20298,7 @@
         <v>22996</v>
       </c>
       <c r="B193" t="n">
-        <v>135944</v>
+        <v>166870</v>
       </c>
       <c r="C193" t="s">
         <v>1485</v>
@@ -20359,7 +20359,7 @@
         <v>22996</v>
       </c>
       <c r="B194" t="n">
-        <v>135945</v>
+        <v>166871</v>
       </c>
       <c r="C194" t="s">
         <v>1491</v>
@@ -20430,7 +20430,7 @@
         <v>22996</v>
       </c>
       <c r="B195" t="n">
-        <v>135946</v>
+        <v>166872</v>
       </c>
       <c r="C195" t="s">
         <v>1497</v>
@@ -20572,7 +20572,7 @@
         <v>22996</v>
       </c>
       <c r="B197" t="n">
-        <v>135947</v>
+        <v>166873</v>
       </c>
       <c r="C197" t="s">
         <v>1511</v>
@@ -20773,7 +20773,7 @@
         <v>22996</v>
       </c>
       <c r="B200" t="n">
-        <v>135948</v>
+        <v>166874</v>
       </c>
       <c r="C200" t="s">
         <v>1531</v>
@@ -20842,7 +20842,7 @@
         <v>22996</v>
       </c>
       <c r="B201" t="n">
-        <v>135949</v>
+        <v>166875</v>
       </c>
       <c r="C201" t="s">
         <v>1536</v>
@@ -20974,7 +20974,7 @@
         <v>22996</v>
       </c>
       <c r="B203" t="n">
-        <v>135950</v>
+        <v>166876</v>
       </c>
       <c r="C203" t="s">
         <v>1549</v>
@@ -21047,7 +21047,7 @@
         <v>22996</v>
       </c>
       <c r="B204" t="n">
-        <v>135951</v>
+        <v>166877</v>
       </c>
       <c r="C204" t="s">
         <v>1556</v>
@@ -21879,7 +21879,7 @@
         <v>22996</v>
       </c>
       <c r="B216" t="n">
-        <v>135952</v>
+        <v>166878</v>
       </c>
       <c r="C216" t="s">
         <v>1629</v>
@@ -21950,7 +21950,7 @@
         <v>22996</v>
       </c>
       <c r="B217" t="n">
-        <v>135953</v>
+        <v>166879</v>
       </c>
       <c r="C217" t="s">
         <v>1635</v>
@@ -22012,7 +22012,7 @@
         <v>22996</v>
       </c>
       <c r="B218" t="n">
-        <v>135954</v>
+        <v>166880</v>
       </c>
       <c r="C218" t="s">
         <v>1640</v>
@@ -22083,7 +22083,7 @@
         <v>22996</v>
       </c>
       <c r="B219" t="n">
-        <v>135955</v>
+        <v>166881</v>
       </c>
       <c r="C219" t="s">
         <v>1647</v>
@@ -22206,7 +22206,7 @@
         <v>22996</v>
       </c>
       <c r="B221" t="n">
-        <v>135956</v>
+        <v>166882</v>
       </c>
       <c r="C221" t="s">
         <v>1658</v>
@@ -22268,7 +22268,7 @@
         <v>22996</v>
       </c>
       <c r="B222" t="n">
-        <v>135957</v>
+        <v>166883</v>
       </c>
       <c r="C222" t="s">
         <v>1662</v>
@@ -22330,7 +22330,7 @@
         <v>22996</v>
       </c>
       <c r="B223" t="n">
-        <v>135958</v>
+        <v>166884</v>
       </c>
       <c r="C223" t="s">
         <v>1666</v>
@@ -22472,7 +22472,7 @@
         <v>22996</v>
       </c>
       <c r="B225" t="n">
-        <v>135959</v>
+        <v>166885</v>
       </c>
       <c r="C225" t="s">
         <v>1679</v>
@@ -22543,7 +22543,7 @@
         <v>22996</v>
       </c>
       <c r="B226" t="n">
-        <v>135960</v>
+        <v>166886</v>
       </c>
       <c r="C226" t="s">
         <v>1686</v>
@@ -22614,7 +22614,7 @@
         <v>22996</v>
       </c>
       <c r="B227" t="n">
-        <v>135961</v>
+        <v>166887</v>
       </c>
       <c r="C227" t="s">
         <v>1693</v>
@@ -22685,7 +22685,7 @@
         <v>22996</v>
       </c>
       <c r="B228" t="n">
-        <v>135962</v>
+        <v>166888</v>
       </c>
       <c r="C228" t="s">
         <v>1700</v>
@@ -22756,7 +22756,7 @@
         <v>22996</v>
       </c>
       <c r="B229" t="n">
-        <v>135963</v>
+        <v>166889</v>
       </c>
       <c r="C229" t="s">
         <v>1706</v>
@@ -22889,7 +22889,7 @@
         <v>22996</v>
       </c>
       <c r="B231" t="n">
-        <v>135964</v>
+        <v>166890</v>
       </c>
       <c r="C231" t="s">
         <v>1716</v>
@@ -22960,7 +22960,7 @@
         <v>22996</v>
       </c>
       <c r="B232" t="n">
-        <v>135965</v>
+        <v>166891</v>
       </c>
       <c r="C232" t="s">
         <v>1723</v>
@@ -23022,7 +23022,7 @@
         <v>22996</v>
       </c>
       <c r="B233" t="n">
-        <v>135966</v>
+        <v>166892</v>
       </c>
       <c r="C233" t="s">
         <v>1727</v>
@@ -23217,7 +23217,7 @@
         <v>22996</v>
       </c>
       <c r="B236" t="n">
-        <v>135967</v>
+        <v>166893</v>
       </c>
       <c r="C236" t="s">
         <v>1742</v>
@@ -23539,7 +23539,7 @@
         <v>22996</v>
       </c>
       <c r="B241" t="n">
-        <v>135968</v>
+        <v>166894</v>
       </c>
       <c r="C241" t="s">
         <v>1766</v>
@@ -23601,7 +23601,7 @@
         <v>22996</v>
       </c>
       <c r="B242" t="n">
-        <v>135969</v>
+        <v>166895</v>
       </c>
       <c r="C242" t="s">
         <v>1770</v>
@@ -23796,7 +23796,7 @@
         <v>22996</v>
       </c>
       <c r="B245" t="n">
-        <v>135970</v>
+        <v>166896</v>
       </c>
       <c r="C245" t="s">
         <v>1785</v>
@@ -23865,7 +23865,7 @@
         <v>22996</v>
       </c>
       <c r="B246" t="n">
-        <v>135971</v>
+        <v>166897</v>
       </c>
       <c r="C246" t="s">
         <v>1791</v>
@@ -23934,7 +23934,7 @@
         <v>22996</v>
       </c>
       <c r="B247" t="n">
-        <v>135972</v>
+        <v>166898</v>
       </c>
       <c r="C247" t="s">
         <v>1798</v>
@@ -24003,7 +24003,7 @@
         <v>22996</v>
       </c>
       <c r="B248" t="n">
-        <v>135973</v>
+        <v>166899</v>
       </c>
       <c r="C248" t="s">
         <v>1803</v>
@@ -24074,7 +24074,7 @@
         <v>22996</v>
       </c>
       <c r="B249" t="n">
-        <v>135974</v>
+        <v>166900</v>
       </c>
       <c r="C249" t="s">
         <v>1809</v>
@@ -24216,7 +24216,7 @@
         <v>22996</v>
       </c>
       <c r="B251" t="n">
-        <v>135975</v>
+        <v>166901</v>
       </c>
       <c r="C251" t="s">
         <v>1822</v>
@@ -24287,7 +24287,7 @@
         <v>22996</v>
       </c>
       <c r="B252" t="n">
-        <v>135976</v>
+        <v>166902</v>
       </c>
       <c r="C252" t="s">
         <v>1829</v>
@@ -24358,7 +24358,7 @@
         <v>22996</v>
       </c>
       <c r="B253" t="n">
-        <v>135977</v>
+        <v>166903</v>
       </c>
       <c r="C253" t="s">
         <v>1835</v>
@@ -24429,7 +24429,7 @@
         <v>22996</v>
       </c>
       <c r="B254" t="n">
-        <v>135978</v>
+        <v>166904</v>
       </c>
       <c r="C254" t="s">
         <v>1841</v>
@@ -24500,7 +24500,7 @@
         <v>22996</v>
       </c>
       <c r="B255" t="n">
-        <v>135979</v>
+        <v>166905</v>
       </c>
       <c r="C255" t="s">
         <v>1848</v>
@@ -24642,7 +24642,7 @@
         <v>22996</v>
       </c>
       <c r="B257" t="n">
-        <v>135980</v>
+        <v>166906</v>
       </c>
       <c r="C257" t="s">
         <v>1859</v>
@@ -24713,7 +24713,7 @@
         <v>22996</v>
       </c>
       <c r="B258" t="n">
-        <v>135981</v>
+        <v>166907</v>
       </c>
       <c r="C258" t="s">
         <v>1865</v>
@@ -24784,7 +24784,7 @@
         <v>22996</v>
       </c>
       <c r="B259" t="n">
-        <v>135982</v>
+        <v>166908</v>
       </c>
       <c r="C259" t="s">
         <v>1871</v>
@@ -24926,7 +24926,7 @@
         <v>22996</v>
       </c>
       <c r="B261" t="n">
-        <v>18816</v>
+        <v>166909</v>
       </c>
       <c r="C261" t="s">
         <v>1883</v>
@@ -24997,7 +24997,7 @@
         <v>22996</v>
       </c>
       <c r="B262" t="n">
-        <v>135983</v>
+        <v>166910</v>
       </c>
       <c r="C262" t="s">
         <v>1889</v>
@@ -25068,7 +25068,7 @@
         <v>22996</v>
       </c>
       <c r="B263" t="n">
-        <v>135984</v>
+        <v>166911</v>
       </c>
       <c r="C263" t="s">
         <v>1897</v>
@@ -25139,7 +25139,7 @@
         <v>22996</v>
       </c>
       <c r="B264" t="n">
-        <v>135985</v>
+        <v>166912</v>
       </c>
       <c r="C264" t="s">
         <v>1904</v>
@@ -25210,7 +25210,7 @@
         <v>22996</v>
       </c>
       <c r="B265" t="n">
-        <v>135986</v>
+        <v>166913</v>
       </c>
       <c r="C265" t="s">
         <v>1911</v>
@@ -25281,7 +25281,7 @@
         <v>22996</v>
       </c>
       <c r="B266" t="n">
-        <v>135987</v>
+        <v>166914</v>
       </c>
       <c r="C266" t="s">
         <v>1917</v>
@@ -25348,7 +25348,7 @@
         <v>22996</v>
       </c>
       <c r="B267" t="n">
-        <v>135988</v>
+        <v>166915</v>
       </c>
       <c r="C267" t="s">
         <v>1923</v>
@@ -25490,7 +25490,7 @@
         <v>22996</v>
       </c>
       <c r="B269" t="n">
-        <v>135989</v>
+        <v>166916</v>
       </c>
       <c r="C269" t="s">
         <v>1939</v>
@@ -25561,7 +25561,7 @@
         <v>22996</v>
       </c>
       <c r="B270" t="n">
-        <v>135990</v>
+        <v>166917</v>
       </c>
       <c r="C270" t="s">
         <v>1946</v>
@@ -25628,7 +25628,7 @@
         <v>22996</v>
       </c>
       <c r="B271" t="n">
-        <v>135991</v>
+        <v>166918</v>
       </c>
       <c r="C271" t="s">
         <v>1954</v>
@@ -25695,7 +25695,7 @@
         <v>22996</v>
       </c>
       <c r="B272" t="n">
-        <v>135992</v>
+        <v>166919</v>
       </c>
       <c r="C272" t="s">
         <v>1961</v>
@@ -25756,7 +25756,7 @@
         <v>22996</v>
       </c>
       <c r="B273" t="n">
-        <v>135993</v>
+        <v>166920</v>
       </c>
       <c r="C273" t="s">
         <v>1968</v>
@@ -25827,7 +25827,7 @@
         <v>22996</v>
       </c>
       <c r="B274" t="n">
-        <v>135994</v>
+        <v>166921</v>
       </c>
       <c r="C274" t="s">
         <v>1974</v>
@@ -25898,7 +25898,7 @@
         <v>22996</v>
       </c>
       <c r="B275" t="n">
-        <v>135995</v>
+        <v>166922</v>
       </c>
       <c r="C275" t="s">
         <v>1982</v>
@@ -25967,7 +25967,7 @@
         <v>22996</v>
       </c>
       <c r="B276" t="n">
-        <v>135996</v>
+        <v>166923</v>
       </c>
       <c r="C276" t="s">
         <v>1989</v>
@@ -26109,7 +26109,7 @@
         <v>22996</v>
       </c>
       <c r="B278" t="n">
-        <v>135997</v>
+        <v>166924</v>
       </c>
       <c r="C278" t="s">
         <v>2004</v>
@@ -26178,7 +26178,7 @@
         <v>22996</v>
       </c>
       <c r="B279" t="n">
-        <v>135998</v>
+        <v>166925</v>
       </c>
       <c r="C279" t="s">
         <v>2012</v>
@@ -26243,7 +26243,7 @@
         <v>22996</v>
       </c>
       <c r="B280" t="n">
-        <v>135999</v>
+        <v>166926</v>
       </c>
       <c r="C280" t="s">
         <v>2019</v>
@@ -26308,7 +26308,7 @@
         <v>22996</v>
       </c>
       <c r="B281" t="n">
-        <v>136000</v>
+        <v>166927</v>
       </c>
       <c r="C281" t="s">
         <v>2025</v>
